--- a/KitabooAutomation/testData/readerConfig.xlsx
+++ b/KitabooAutomation/testData/readerConfig.xlsx
@@ -20,27 +20,30 @@
     <t>Environment</t>
   </si>
   <si>
+    <t>ProdUS</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>All Browsers</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
     <t>QC</t>
   </si>
   <si>
-    <t>Browser</t>
-  </si>
-  <si>
-    <t>All Browsers</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>Learner</t>
   </si>
   <si>
@@ -63,9 +66,6 @@
   </si>
   <si>
     <t>https://qaread.kitaboo.com/reader/MobileReader/index.html#/login</t>
-  </si>
-  <si>
-    <t>ProdUS</t>
   </si>
   <si>
     <t>https://read.kitaboo.com/reader/V5/#!/</t>
@@ -256,10 +256,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -290,6 +290,126 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -298,104 +418,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -403,28 +425,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -441,19 +441,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,157 +609,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,34 +629,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -679,10 +657,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -703,6 +679,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -717,162 +726,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1248,7 +1248,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1297,96 +1297,96 @@
     </row>
     <row r="10" spans="3:7">
       <c r="C10" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="3:7">
       <c r="C11" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="12" spans="3:7">
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="3:7">
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="3:7">
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="3:7">
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="3:7">
@@ -1394,7 +1394,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>19</v>
@@ -1407,7 +1407,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>19</v>
